--- a/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>-11,86</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 17,61</t>
+          <t>-18,06; -6,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 17,85</t>
+          <t>-16,93; -6,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,28</t>
+          <t>-15,81; -7,96</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>-16,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>-17,52%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 56,66</t>
+          <t>-26,64; -9,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,84; 65,34</t>
+          <t>-23,77; -10,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,07; 53,0</t>
+          <t>-22,96; -12,12</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-4,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 10,27</t>
+          <t>-10,99; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 12,17</t>
+          <t>-10,49; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,12</t>
+          <t>-9,29; 0,18</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>-6,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>-6,89%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 30,33</t>
+          <t>-17,28; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 37,2</t>
+          <t>-16,03; 1,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 26,93</t>
+          <t>-14,68; 0,27</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>2,42</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 15,11</t>
+          <t>-15,92; 13,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 6,7</t>
+          <t>-4,59; 16,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 8,02</t>
+          <t>-6,44; 11,48</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 42,35</t>
+          <t>-25,06; 25,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 27,8</t>
+          <t>-6,35; 26,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 24,29</t>
+          <t>-10,03; 20,31</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>-7,19</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,07</t>
+          <t>-11,35; -2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,12</t>
+          <t>-10,29; -3,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,44</t>
+          <t>-10,04; -4,19</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>-11,09%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,77; 32,02</t>
+          <t>-17,46; -4,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,04; 39,2</t>
+          <t>-15,21; -4,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,59; 31,63</t>
+          <t>-15,2; -6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_4_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,92</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-11,77</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,86</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-11.24289647771848</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-13.60110117193358</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.47409412408359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,06; -6,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,93; -6,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,81; -7,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.11608458101222</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.38872050029731</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.70636071901799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-18,12%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-16,96%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-17,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.120378203056069</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-8.678168952338407</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-8.397873662380508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-26,64; -9,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,77; -10,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-22,96; -12,12</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1697285323266007</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1933973193954024</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1824574496629597</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2587376131755553</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2553822849476128</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2375066553125474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 2,49</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; 1,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,29; 0,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.07894144301254095</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.1279746401723192</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.1260177167770643</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,46%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-6,89%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.080093234806804</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.560340410435294</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.321724803418649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,28; 4,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-16,03; 1,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 0,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.04892992736891</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.02231624675658</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.10647060028988</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.70895904005289</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7676800937117342</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.03093298434594845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,92; 13,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 16,01</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,44; 11,48</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.0805133739814981</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.08675234591150013</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.08367959064065458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,45%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.199533865795954</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1782269908872383</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1551981542221435</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-25,06; 25,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 26,35</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 20,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.02708309874223151</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01285994732687865</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.0001843656628483973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-7,48</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-7,19</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.825449777432874</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.828881883870118</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.979370089834809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; -2,86</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; -3,23</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; -4,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.94963907989128</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.497874312677821</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.039433680053239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-11,82%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-10,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-11,09%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.22566601481857</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.01170290410994</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.85638959255024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; -4,66</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-15,21; -4,91</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-15,2; -6,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.0143481464074071</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.07089362484410543</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.03154794014717111</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2281526318411705</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.07545591505332552</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1059718209895561</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2792629873399546</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2417027676693744</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1863177353734727</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-7.519672144192691</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-8.392772232822255</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-7.969255575326473</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.1540096395402</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.0088983130072</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-10.8602665561357</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.078411780091391</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-4.549954280956083</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-5.064306639532049</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1176331250297925</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.124055808245616</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1210684224450704</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1857648599360889</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1732823578335239</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1631869422871925</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.05150442119258569</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.06831261086888721</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.07892948825212433</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
